--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s3_P5_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s3_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1190.914083239685</v>
+        <v>2074.615653474775</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.0009999275207519531</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.62408323967798</v>
+        <v>23.65265368177027</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.571887095804371</v>
+        <v>15.72005340145628</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.571887095804371</v>
+        <v>6.683053194461346</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>878.4400000000071</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>278.85</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>2.469817807045693</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23.10555953090583</v>
+        <v>5.575377337951519</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>20.84866676379884</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23.42811290419563</v>
+        <v>14.61296311465065</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>12.35722294236247</v>
       </c>
     </row>
     <row r="8">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.54711261803086</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>6</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>6</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>6</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>6</v>
@@ -1066,6 +1066,146 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>54.00999999999964</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -1179,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -1190,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>56.79499999999963</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -1201,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>53.26999999999964</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -1212,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>55.17499999999963</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -1223,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>139.7</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -1234,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>150.66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -1245,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>137.925</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -1256,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>143.145</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -1267,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>141.715</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>35.25999999999986</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18">
@@ -1289,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>27.32499999999985</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19">
@@ -1300,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>30.18999999999986</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20">
@@ -1311,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>25.3</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21">
@@ -1322,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>28.38999999999985</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>141.65</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
@@ -1344,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>141.5700000000009</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24">
@@ -1355,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>148.7150000000009</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25">
@@ -1366,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>143.7150000000009</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26">
@@ -1377,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>150.4250000000009</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27">
@@ -1388,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>74.33000000000058</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28">
@@ -1399,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>65.36500000000058</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29">
@@ -1410,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>67.52500000000057</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
@@ -1421,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>73.12500000000058</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31">
@@ -1432,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>75.84000000000059</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32">
@@ -1443,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>141.65</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33">
@@ -1454,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>141.5700000000009</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34">
@@ -1465,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>148.7150000000009</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35">
@@ -1476,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>143.7150000000009</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36">
@@ -1487,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>150.4250000000009</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37">
@@ -1498,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>139.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1509,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>150.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1520,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>137.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1531,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>143.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1542,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>141.715</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>41.65</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
@@ -1600,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>41.57000000000087</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
@@ -1611,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>48.71500000000086</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5">
@@ -1622,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>43.71500000000088</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6">
@@ -1633,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>50.42500000000086</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7">
@@ -1644,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>39.69999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1655,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>50.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1666,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>37.92500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1677,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>43.14500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1688,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>41.715</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -1746,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1757,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -1768,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1779,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1790,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -1801,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -1812,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -1823,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1834,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -1845,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>10.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1856,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1867,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>12.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1878,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>12.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1889,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>12.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1911,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1922,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1933,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1944,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1955,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.905</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1966,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.405</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1977,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1988,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.495</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1999,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2013,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2040,7 +2180,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2051,7 +2191,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2062,7 +2202,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2073,7 +2213,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2084,7 +2224,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2145,6 +2285,61 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
